--- a/SART/lists/check_list.xlsx
+++ b/SART/lists/check_list.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ange3856/Box Sync/PyExp/SART/lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D57BB03-E227-5749-A450-9E02087FC535}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB4FE8C-1425-A343-A056-B8E96AAC4D6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="3560" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="check_list" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">check_list!$A$1:$K$567</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -580,17 +583,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -920,11 +913,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E564" sqref="E564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -20772,11 +20766,12 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K567" xr:uid="{E34346CE-9651-1743-9432-33058C85F9B4}"/>
   <conditionalFormatting sqref="B1:K1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
